--- a/Dataset/Folds/Fold_4/Excel/102.xlsx
+++ b/Dataset/Folds/Fold_4/Excel/102.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3169" uniqueCount="415">
   <si>
     <t>Doi</t>
   </si>
@@ -1256,6 +1256,135 @@
   </si>
   <si>
     <t>[ J.-W.%Ai%null%1,                            H.-C.% Zhang%null%1,                            T.% Xu%null%1,                            J.% Wu%null%1,                            M.% Zhu%null%1,                            Y.-Q.% Yu%null%1,                            H.-Y.% Zhang%null%1,                            Z.% Shen%null%1,                            Y.% Li%null%0,                            X.% Zhou%null%0,                            G.-Q.% Zang%null%1,                            J.% Xu%null%1,                            W.-J.% Chen%null%1,                            Y.-J.% Li%null%1,                            D.-S.% Xie%null%1,                            M.-Z.% Zhou%null%1,                            J.-Y.% Sun%null%1,                            J.-Z.% Chen%null%1,                            W.-H. % Zhang%null%1,         J.-W.%Ai%null%1,         H.-C.% Zhang%null%1,         T.% Xu%null%1,         J.% Wu%null%1,         M.% Zhu%null%1,         Y.-Q.% Yu%null%1,         H.-Y.% Zhang%null%1,         Z.% Shen%null%1,         Y.% Li%null%0,         X.% Zhou%null%0,         G.-Q.% Zang%null%1,         J.% Xu%null%1,         W.-J.% Chen%null%1,         Y.-J.% Li%null%1,         D.-S.% Xie%null%1,         M.-Z.% Zhou%null%1,         J.-Y.% Sun%null%1,         J.-Z.% Chen%null%1,         W.-H. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Silan%Gu%NULL%1,                            Yanfei%Chen%NULL%1,                            Zhengjie%Wu%NULL%1,                            Yunbo%Chen%NULL%1,                            Hainv%Gao%NULL%1,                            Longxian%Lv%NULL%1,                            Feifei%Guo%NULL%1,                            Xuewu%Zhang%NULL%1,                            Rui%Luo%NULL%1,                            Chenjie%Huang%NULL%1,                            Haifeng%Lu%NULL%1,                            Beiwen%Zheng%NULL%1,                            Jiaying%Zhang%NULL%1,                            Ren%Yan%NULL%1,                            Hua%Zhang%NULL%0,                            Huiyong%Jiang%NULL%1,                            Qiaomai%Xu%NULL%1,                            Jing%Guo%NULL%1,                            Yiwen%Gong%NULL%1,                            Lingling%Tang%NULL%1,                            Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%2,                            Fen%Zhang%NULL%2,                            Grace C.Y.%Lui%NULL%2,                            Yun Kit%Yeoh%NULL%1,                            Amy Y.L.%Li%NULL%1,                            Hui%Zhan%NULL%2,                            Yating%Wan%NULL%1,                            Arthur C.K.%Chung%NULL%1,                            Chun Pan%Cheung%NULL%1,                            Nan%Chen%NULL%2,                            Christopher K.C.%Lai%NULL%1,                            Zigui%Chen%NULL%1,                            Eugene Y.K.%Tso%NULL%2,                            Kitty S.C.%Fung%NULL%1,                            Veronica%Chan%NULL%1,                            Lowell%Ling%NULL%1,                            Gavin%Joynt%NULL%1,                            David S.C.%Hui%NULL%0,                            Francis K.L.%Chan%NULL%2,                            Paul K.S.%Chan%NULL%2,                            Siew C.%Ng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%0,                            Hui%Zhan%NULL%0,                            Fen%Zhang%NULL%0,                            Qin%Liu%NULL%0,                            Eugene Y.K.%Tso%NULL%0,                            Grace C.Y.%Lui%NULL%0,                            Nan%Chen%NULL%0,                            Amy%Li%NULL%1,                            Wenqi%Lu%NULL%1,                            Francis K.L.%Chan%NULL%0,                            Paul K.S.%Chan%NULL%0,                            Siew C.%Ng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haocheng%Zhang%NULL%1,                            Jing-Wen%Ai%NULL%1,                            Wenjiao%Yang%NULL%1,                            Xian%Zhou%NULL%1,                            Fusheng%He%NULL%1,                            Shumei%Xie%NULL%1,                            Weiqi%Zeng%NULL%1,                            Yang%Li%NULL%0,                            Yiqi%Yu%NULL%1,                            Xuejing%Gou%NULL%1,                            Yongjun%Li%NULL%1,                            Xiaorui%Wang%NULL%1,                            Hang%Su%NULL%1,                            Teng%Xu%NULL%2,                            Wenhong%Zhang%wenhongzhang_hs@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavio%De Maio%NULL%1,                            Brunella%Posteraro%NULL%1,                            Francesca Romana%Ponziani%NULL%1,                            Paola%Cattani%NULL%1,                            Antonio%Gasbarrini%NULL%0,                            Maurizio%Sanguinetti%maurizio.sanguinetti@unicatt.it%1]</t>
+  </si>
+  <si>
+    <t>[Liangjun%Chen%NULL%1,                            Weiyong%Liu%NULL%0,                            Qi%Zhang%NULL%1,                            Ke%Xu%NULL%2,                            Ke%Xu%NULL%0,                            Guangming%Ye%NULL%0,                            Weichen%Wu%NULL%1,                            Ziyong%Sun%NULL%1,                            Fang%Liu%NULL%0,                            Kailang%Wu%NULL%0,                            Bo%Zhong%NULL%1,                            Yi%Mei%NULL%1,                            Wenxia%Zhang%NULL%1,                            Yu%Chen%NULL%0,                            Yirong%Li%NULL%0,                            Yirong%Li%NULL%0,                            Mang%Shi%NULL%1,                            Ke%Lan%NULL%1,                            Yingle%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,                            Ye-Ming%Wang%NULL%1,                            Zhi-Qiang%Wu%NULL%1,                            Zi-Chun%Xiang%NULL%1,                            Li%Guo%NULL%0,                            Teng%Xu%NULL%0,                            Yong-Zhong%Jiang%NULL%1,                            Yan%Xiong%NULL%0,                            Yong-Jun%Li%NULL%1,                            Xing-Wang%Li%NULL%1,                            Hui%Li%NULL%0,                            Guo-Hui%Fan%NULL%1,                            Xiao-Ying%Gu%NULL%1,                            Yan%Xiao%NULL%0,                            Hong%Gao%NULL%0,                            Jiu-Yang%Xu%NULL%1,                            Fan%Yang%NULL%0,                            Xin-Ming%Wang%NULL%1,                            Chao%Wu%NULL%1,                            Lan%Chen%NULL%1,                            Yi-Wei%Liu%NULL%1,                            Bo%Liu%NULL%0,                            Jian%Yang%NULL%1,                            Xiao-Rui%Wang%NULL%1,                            Jie%Dong%NULL%1,                            Li%Li%NULL%0,                            Chao-Lin%Huang%NULL%1,                            Jian-Ping%Zhao%NULL%1,                            Yi%Hu%NULL%0,                            Zhen-Shun%Cheng%NULL%1,                            Lin-Lin%Liu%NULL%1,                            Zhao-Hui%Qian%NULL%1,                            Chuan%Qin%NULL%0,                            Qi%Jin%NULL%0,                            Bin%Cao%NULL%0,                            Jian-Wei%Wang%NULL%1,                            Xiu-Yuan%Hao%NULL%0,                            Xiu-Yuan%Hao%NULL%0,                            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Fan%NULL%1,                            Xiang%Li%NULL%1,                            Yong%Gao%NULL%1,                            Junjie%Zhou%NULL%1,                            Sihua%Wang%NULL%1,                            Bo%Huang%NULL%1,                            Junhua%Wu%NULL%1,                            Qin%Cao%NULL%1,                            Yajun%Chen%NULL%1,                            Zhenkao%Wang%NULL%1,                            Danju%Luo%NULL%1,                            Ting%Zhou%NULL%1,                            Ruiting%Li%NULL%0,                            You%Shang%NULL%0,                            Xiu%Nie%whunhpath@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wanyin%Tao%NULL%1,                            Guorong%Zhang%NULL%1,                            Xiaofang%Wang%NULL%1,                            Meng%Guo%NULL%1,                            Weihong%Zeng%NULL%1,                            Zhihao%Xu%NULL%1,                            Dan%Cao%NULL%1,                            Aijun%Pan%NULL%0,                            Yucai%Wang%NULL%1,                            Kaiguang%Zhang%NULL%1,                            Xiaoling%Ma%NULL%1,                            Zhengxu%Chen%NULL%1,                            Tengchuan%Jin%NULL%1,                            Lianxin%Liu%NULL%0,                            Jianping%Weng%NULL%1,                            Shu%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Silan%Gu%NULL%1,                             Yanfei%Chen%NULL%1,                             Zhengjie%Wu%NULL%1,                             Yunbo%Chen%NULL%1,                             Hainv%Gao%NULL%1,                             Longxian%Lv%NULL%1,                             Feifei%Guo%NULL%1,                             Xuewu%Zhang%NULL%1,                             Rui%Luo%NULL%1,                             Chenjie%Huang%NULL%1,                             Haifeng%Lu%NULL%1,                             Beiwen%Zheng%NULL%1,                             Jiaying%Zhang%NULL%1,                             Ren%Yan%NULL%1,                             Hua%Zhang%NULL%0,                             Huiyong%Jiang%NULL%1,                             Qiaomai%Xu%NULL%1,                             Jing%Guo%NULL%1,                             Yiwen%Gong%NULL%1,                             Lingling%Tang%NULL%1,                             Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%2,                             Fen%Zhang%NULL%2,                             Grace C.Y.%Lui%NULL%2,                             Yun Kit%Yeoh%NULL%1,                             Amy Y.L.%Li%NULL%1,                             Hui%Zhan%NULL%2,                             Yating%Wan%NULL%1,                             Arthur C.K.%Chung%NULL%1,                             Chun Pan%Cheung%NULL%1,                             Nan%Chen%NULL%2,                             Christopher K.C.%Lai%NULL%1,                             Zigui%Chen%NULL%1,                             Eugene Y.K.%Tso%NULL%2,                             Kitty S.C.%Fung%NULL%1,                             Veronica%Chan%NULL%1,                             Lowell%Ling%NULL%1,                             Gavin%Joynt%NULL%1,                             David S.C.%Hui%NULL%0,                             Francis K.L.%Chan%NULL%2,                             Paul K.S.%Chan%NULL%2,                             Siew C.%Ng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%0,                             Hui%Zhan%NULL%0,                             Fen%Zhang%NULL%0,                             Qin%Liu%NULL%0,                             Eugene Y.K.%Tso%NULL%0,                             Grace C.Y.%Lui%NULL%0,                             Nan%Chen%NULL%0,                             Amy%Li%NULL%1,                             Wenqi%Lu%NULL%1,                             Francis K.L.%Chan%NULL%0,                             Paul K.S.%Chan%NULL%0,                             Siew C.%Ng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haocheng%Zhang%NULL%1,                             Jing-Wen%Ai%NULL%1,                             Wenjiao%Yang%NULL%1,                             Xian%Zhou%NULL%1,                             Fusheng%He%NULL%1,                             Shumei%Xie%NULL%1,                             Weiqi%Zeng%NULL%1,                             Yang%Li%NULL%0,                             Yiqi%Yu%NULL%1,                             Xuejing%Gou%NULL%1,                             Yongjun%Li%NULL%1,                             Xiaorui%Wang%NULL%1,                             Hang%Su%NULL%1,                             Teng%Xu%NULL%2,                             Wenhong%Zhang%wenhongzhang_hs@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavio%De Maio%NULL%1,                             Brunella%Posteraro%NULL%1,                             Francesca Romana%Ponziani%NULL%1,                             Paola%Cattani%NULL%1,                             Antonio%Gasbarrini%NULL%0,                             Maurizio%Sanguinetti%maurizio.sanguinetti@unicatt.it%1]</t>
+  </si>
+  <si>
+    <t>[Liangjun%Chen%NULL%1,                             Weiyong%Liu%NULL%0,                             Qi%Zhang%NULL%1,                             Ke%Xu%NULL%2,                             Ke%Xu%NULL%0,                             Guangming%Ye%NULL%0,                             Weichen%Wu%NULL%1,                             Ziyong%Sun%NULL%1,                             Fang%Liu%NULL%0,                             Kailang%Wu%NULL%0,                             Bo%Zhong%NULL%1,                             Yi%Mei%NULL%1,                             Wenxia%Zhang%NULL%1,                             Yu%Chen%NULL%0,                             Yirong%Li%NULL%0,                             Yirong%Li%NULL%0,                             Mang%Shi%NULL%1,                             Ke%Lan%NULL%1,                             Yingle%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0,                             Ye-Ming%Wang%NULL%1,                             Zhi-Qiang%Wu%NULL%1,                             Zi-Chun%Xiang%NULL%1,                             Li%Guo%NULL%0,                             Teng%Xu%NULL%0,                             Yong-Zhong%Jiang%NULL%1,                             Yan%Xiong%NULL%0,                             Yong-Jun%Li%NULL%1,                             Xing-Wang%Li%NULL%1,                             Hui%Li%NULL%0,                             Guo-Hui%Fan%NULL%1,                             Xiao-Ying%Gu%NULL%1,                             Yan%Xiao%NULL%0,                             Hong%Gao%NULL%0,                             Jiu-Yang%Xu%NULL%1,                             Fan%Yang%NULL%0,                             Xin-Ming%Wang%NULL%1,                             Chao%Wu%NULL%1,                             Lan%Chen%NULL%1,                             Yi-Wei%Liu%NULL%1,                             Bo%Liu%NULL%0,                             Jian%Yang%NULL%1,                             Xiao-Rui%Wang%NULL%1,                             Jie%Dong%NULL%1,                             Li%Li%NULL%0,                             Chao-Lin%Huang%NULL%1,                             Jian-Ping%Zhao%NULL%1,                             Yi%Hu%NULL%0,                             Zhen-Shun%Cheng%NULL%1,                             Lin-Lin%Liu%NULL%1,                             Zhao-Hui%Qian%NULL%1,                             Chuan%Qin%NULL%0,                             Qi%Jin%NULL%0,                             Bin%Cao%NULL%0,                             Jian-Wei%Wang%NULL%1,                             Xiu-Yuan%Hao%NULL%0,                             Xiu-Yuan%Hao%NULL%0,                             Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Fan%NULL%1,                             Xiang%Li%NULL%1,                             Yong%Gao%NULL%1,                             Junjie%Zhou%NULL%1,                             Sihua%Wang%NULL%1,                             Bo%Huang%NULL%1,                             Junhua%Wu%NULL%1,                             Qin%Cao%NULL%1,                             Yajun%Chen%NULL%1,                             Zhenkao%Wang%NULL%1,                             Danju%Luo%NULL%1,                             Ting%Zhou%NULL%1,                             Ruiting%Li%NULL%0,                             You%Shang%NULL%0,                             Xiu%Nie%whunhpath@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wanyin%Tao%NULL%1,                             Guorong%Zhang%NULL%1,                             Xiaofang%Wang%NULL%1,                             Meng%Guo%NULL%1,                             Weihong%Zeng%NULL%1,                             Zhihao%Xu%NULL%1,                             Dan%Cao%NULL%1,                             Aijun%Pan%NULL%0,                             Yucai%Wang%NULL%1,                             Kaiguang%Zhang%NULL%1,                             Xiaoling%Ma%NULL%1,                             Zhengxu%Chen%NULL%1,                             Tengchuan%Jin%NULL%1,                             Lianxin%Liu%NULL%0,                             Jianping%Weng%NULL%1,                             Shu%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Silan%Gu%NULL%0, Yanfei%Chen%NULL%0, Zhengjie%Wu%NULL%1, Yunbo%Chen%NULL%1, Hainv%Gao%NULL%1, Longxian%Lv%NULL%0, Feifei%Guo%NULL%1, Xuewu%Zhang%NULL%1, Rui%Luo%NULL%1, Chenjie%Huang%NULL%1, Haifeng%Lu%NULL%1, Beiwen%Zheng%NULL%1, Jiaying%Zhang%NULL%1, Ren%Yan%NULL%1, Hua%Zhang%NULL%0, Huiyong%Jiang%NULL%1, Qiaomai%Xu%NULL%1, Jing%Guo%NULL%0, Yiwen%Gong%NULL%1, Lingling%Tang%NULL%1, Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%0, Fen%Zhang%NULL%2, Grace C.Y.%Lui%NULL%2, Yun Kit%Yeoh%NULL%1, Amy Y.L.%Li%NULL%1, Hui%Zhan%NULL%2, Yating%Wan%NULL%1, Arthur C.K.%Chung%NULL%1, Chun Pan%Cheung%NULL%1, Nan%Chen%NULL%2, Christopher K.C.%Lai%NULL%1, Zigui%Chen%NULL%1, Eugene Y.K.%Tso%NULL%2, Kitty S.C.%Fung%NULL%1, Veronica%Chan%NULL%1, Lowell%Ling%NULL%1, Gavin%Joynt%NULL%1, David S.C.%Hui%NULL%0, Francis K.L.%Chan%NULL%2, Paul K.S.%Chan%NULL%2, Siew C.%Ng%NULL%2]</t>
+  </si>
+  <si>
+    <t>by the AGA Institute. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Tao%Zuo%NULL%0, Hui%Zhan%NULL%0, Fen%Zhang%NULL%0, Qin%Liu%NULL%0, Eugene Y.K.%Tso%NULL%0, Grace C.Y.%Lui%NULL%0, Nan%Chen%NULL%0, Amy%Li%NULL%1, Wenqi%Lu%NULL%1, Francis K.L.%Chan%NULL%0, Paul K.S.%Chan%NULL%0, Siew C.%Ng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haocheng%Zhang%NULL%0, Jing-Wen%Ai%NULL%0, Wenjiao%Yang%NULL%1, Xian%Zhou%NULL%0, Fusheng%He%NULL%1, Shumei%Xie%NULL%1, Weiqi%Zeng%NULL%1, Yang%Li%NULL%0, Yiqi%Yu%NULL%0, Xuejing%Gou%NULL%1, Yongjun%Li%NULL%0, Xiaorui%Wang%NULL%1, Hang%Su%NULL%1, Teng%Xu%NULL%0, Wenhong%Zhang%wenhongzhang_hs@126.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="Par1"&gt;We analyzed the bacterial communities of the nasopharynx in 40 SARS-CoV-2 infected and uninfected patients.
+ All infected patients had a mild COVID-19 disease.
+ We did not find statistically significant differences in either bacterial richness and diversity or composition.
+ These findings suggest a nasopharyngeal microbiota at least early resilient to SARS-CoV-2 infection.
+</t>
+  </si>
+  <si>
+    <t>[Flavio%De Maio%NULL%0, Brunella%Posteraro%NULL%1, Francesca Romana%Ponziani%NULL%1, Paola%Cattani%NULL%1, Antonio%Gasbarrini%NULL%0, Maurizio%Sanguinetti%maurizio.sanguinetti@unicatt.it%1]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From December 2019, an outbreak of unusual pneumonia was reported in Wuhan with many cases linked to Huanan Seafood Market that sells seafood as well as live exotic animals.
+ We investigated two patients who developed acute respiratory syndromes after independent contact history with this market.
+ The two patients shared common clinical features including fever, cough, and multiple ground-glass opacities in the bilateral lung field with patchy infiltration.
+ Here, we highlight the use of a low-input metagenomic next-generation sequencing (mNGS) approach on RNA extracted from bronchoalveolar lavage fluid (BALF).
+ It rapidly identified a novel coronavirus (named 2019-nCoV according to World Health Organization announcement) which was the sole pathogens in the sample with very high abundance level (1.5% and 0.62% of total RNA sequenced).
+ The entire viral genome is 29,881 nt in length (GenBank MN988668 and MN988669, Sequence Read Archive database Bioproject accession PRJNA601736) and is classified into β-coronavirus genus.
+ Phylogenetic analysis indicates that 2019-nCoV is close to coronaviruses (CoVs) circulating in Rhinolophus (Horseshoe bats), such as 98.7% nucleotide identity to partial RdRp gene of bat coronavirus strain BtCoV/4991 (GenBank KP876546, 370 nt sequence of RdRp and lack of other genome sequence) and 87.9% nucleotide identity to bat coronavirus strain bat-SL-CoVZC45 and bat-SL-CoVZXC21. Evolutionary analysis based on ORF1a/1b, S, and N genes also suggests 2019-nCoV is more likely a novel CoV independently introduced from animals to humans.
+</t>
+  </si>
+  <si>
+    <t>[Liangjun%Chen%NULL%0, Weiyong%Liu%NULL%0, Qi%Zhang%NULL%0, Ke%Xu%NULL%2, Ke%Xu%NULL%0, Guangming%Ye%NULL%0, Weichen%Wu%NULL%1, Ziyong%Sun%NULL%0, Fang%Liu%NULL%0, Kailang%Wu%NULL%0, Bo%Zhong%NULL%1, Yi%Mei%NULL%1, Wenxia%Zhang%NULL%1, Yu%Chen%NULL%0, Yirong%Li%NULL%0, Yirong%Li%NULL%0, Mang%Shi%NULL%1, Ke%Lan%NULL%1, Yingle%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>Taylor &amp;amp; Francis</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%0, Ye-Ming%Wang%NULL%0, Zhi-Qiang%Wu%NULL%0, Zi-Chun%Xiang%NULL%0, Li%Guo%NULL%0, Teng%Xu%NULL%0, Yong-Zhong%Jiang%NULL%0, Yan%Xiong%NULL%0, Yong-Jun%Li%NULL%0, Xing-Wang%Li%NULL%0, Hui%Li%NULL%0, Guo-Hui%Fan%NULL%0, Xiao-Ying%Gu%NULL%0, Yan%Xiao%NULL%0, Hong%Gao%NULL%0, Jiu-Yang%Xu%NULL%0, Fan%Yang%NULL%0, Xin-Ming%Wang%NULL%0, Chao%Wu%NULL%0, Lan%Chen%NULL%0, Yi-Wei%Liu%NULL%0, Bo%Liu%NULL%0, Jian%Yang%NULL%0, Xiao-Rui%Wang%NULL%0, Jie%Dong%NULL%0, Li%Li%NULL%0, Chao-Lin%Huang%NULL%0, Jian-Ping%Zhao%NULL%0, Yi%Hu%NULL%0, Zhen-Shun%Cheng%NULL%0, Lin-Lin%Liu%NULL%0, Zhao-Hui%Qian%NULL%0, Chuan%Qin%NULL%0, Qi%Jin%NULL%0, Bin%Cao%NULL%0, Jian-Wei%Wang%NULL%0, Xiu-Yuan%Hao%NULL%0, Xiu-Yuan%Hao%NULL%0, Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>Wolters Kluwer Health</t>
+  </si>
+  <si>
+    <t>[Jun%Fan%NULL%0, Xiang%Li%NULL%1, Yong%Gao%NULL%0, Junjie%Zhou%NULL%1, Sihua%Wang%NULL%1, Bo%Huang%NULL%1, Junhua%Wu%NULL%1, Qin%Cao%NULL%1, Yajun%Chen%NULL%1, Zhenkao%Wang%NULL%1, Danju%Luo%NULL%1, Ting%Zhou%NULL%0, Ruiting%Li%NULL%0, You%Shang%NULL%0, Xiu%Nie%whunhpath@163.com%0]</t>
+  </si>
+  <si>
+    <t>The British Infection Association. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ongoing global pandemic of COVID-19 disease, which is caused by severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2), mainly infect lung epithelial cells, and spread mainly through respiratory droplets.
+ However, recent studies showed potential intestinal infection of SARS-CoV-2, implicated the possibility that the intestinal infection of SARS-CoV-2 may correlate with the dysbiosis of gut microbiota, as well as the severity of COVID-19 symptoms.
+ Here, we investigated the alteration of the gut microbiota in COVID-19 patients, as well as analyzed the correlation between the altered microbes and the levels of intestinal inflammatory cytokine IL-18, which was reported to be elevated in the serum of in COVID-19 patients.
+ Comparing with healthy controls or seasonal flu patients, the gut microbiota showed significantly reduced diversity, with increased opportunistic pathogens in COVID-19 patients.
+ Also, IL-18 level was higher in the fecal samples of COVID-19 patients than in those of either healthy controls or seasonal flu patients.
+ Moreover, the IL-18 levels were even higher in the fecal supernatants obtained from COVID-19 patients that tested positive for SARS-CoV-2 RNA than those that tested negative in fecal samples.
+ These results indicate that changes in gut microbiota composition might contribute to SARS-CoV-2-induced production of inflammatory cytokines in the intestine and potentially also to the onset of a cytokine storm.
+</t>
+  </si>
+  <si>
+    <t>[Wanyin%Tao%NULL%0, Guorong%Zhang%NULL%1, Xiaofang%Wang%NULL%1, Meng%Guo%NULL%1, Weihong%Zeng%NULL%1, Zhihao%Xu%NULL%1, Dan%Cao%NULL%1, Aijun%Pan%NULL%0, Yucai%Wang%NULL%1, Kaiguang%Zhang%NULL%1, Xiaoling%Ma%NULL%1, Zhengxu%Chen%NULL%1, Tengchuan%Jin%NULL%1, Lianxin%Liu%NULL%0, Jianping%Weng%NULL%1, Shu%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>The Author(s). Published by Elsevier B.V.</t>
   </si>
 </sst>
 </file>
@@ -1608,7 +1737,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1620,10 +1749,10 @@
         <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>275</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3">
@@ -1640,7 +1769,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1652,10 +1781,10 @@
         <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>277</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4">
@@ -1672,7 +1801,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1684,10 +1813,10 @@
         <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>277</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5">
@@ -1704,7 +1833,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1716,10 +1845,10 @@
         <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>275</v>
+        <v>62</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6">
@@ -1733,10 +1862,10 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>402</v>
       </c>
       <c r="E6" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1748,10 +1877,10 @@
         <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>281</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7">
@@ -1765,10 +1894,10 @@
         <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>405</v>
       </c>
       <c r="E7" t="s">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1780,10 +1909,10 @@
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>275</v>
+        <v>62</v>
       </c>
       <c r="J7" t="s">
-        <v>62</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8">
@@ -1800,7 +1929,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1812,10 +1941,10 @@
         <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>275</v>
+        <v>62</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9">
@@ -1832,7 +1961,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1844,10 +1973,10 @@
         <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>277</v>
+        <v>62</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10">
@@ -1861,10 +1990,10 @@
         <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>412</v>
       </c>
       <c r="E10" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1876,10 +2005,10 @@
         <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>277</v>
+        <v>62</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11">
@@ -1890,25 +2019,25 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>376</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>228</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>287</v>
+        <v>62</v>
       </c>
       <c r="J11" t="s">
         <v>62</v>
@@ -1922,25 +2051,25 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>377</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>228</v>
+        <v>26</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>287</v>
+        <v>62</v>
       </c>
       <c r="J12" t="s">
         <v>62</v>
